--- a/Documents/ProductBacklog.xlsx
+++ b/Documents/ProductBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drago\Documents\University\Year 2\Semester 1\APT\Assignments\Assignment 2\SEF_1\Avengers\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drago\Documents\University\Year 2\Semester 1\APT\Assignments\Assignment 2\SEF_1\Avengers\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9115DB1-2990-4F23-B54C-85CDC93EDA9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ED884B-9974-43C7-981B-5D7487228BB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>As a user i want to be able to switch to the next month view to check the next month's events</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>When the user is able to shift their view from a given month to another (Start with the adjacent ones only)</t>
@@ -710,8 +707,8 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -952,15 +949,15 @@
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>10</v>
@@ -975,61 +972,61 @@
         <v>21</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>10</v>
@@ -1044,38 +1041,38 @@
         <v>21</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
-        <v>2</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>10</v>
@@ -1090,15 +1087,15 @@
         <v>21</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>10</v>
@@ -1113,38 +1110,38 @@
         <v>21</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>10</v>
@@ -1159,15 +1156,15 @@
         <v>21</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>10</v>
@@ -1182,15 +1179,15 @@
         <v>21</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>10</v>
@@ -1205,15 +1202,15 @@
         <v>21</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -1225,18 +1222,18 @@
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
@@ -1248,18 +1245,18 @@
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
@@ -1274,15 +1271,15 @@
         <v>21</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -1297,15 +1294,15 @@
         <v>21</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -1317,18 +1314,18 @@
         <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
@@ -1343,15 +1340,15 @@
         <v>21</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
@@ -1366,7 +1363,7 @@
         <v>21</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
